--- a/branches/main/StructureDefinition-FoodAllergy.xlsx
+++ b/branches/main/StructureDefinition-FoodAllergy.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://medigree.github.io/r5demo/StructureDefinition/FoodAllergy</t>
+    <t>https://costateixeira.github.io/r4bdemo/StructureDefinition/FoodAllergy</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T09:52:26+00:00</t>
+    <t>2022-11-20T10:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -650,7 +650,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://medigree.github.io/r5demo/ValueSet/FoodAllergyVS</t>
+    <t>https://costateixeira.github.io/r4bdemo/ValueSet/FoodAllergyVS</t>
   </si>
   <si>
     <t>substance/product:
--- a/branches/main/StructureDefinition-FoodAllergy.xlsx
+++ b/branches/main/StructureDefinition-FoodAllergy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T10:01:09+00:00</t>
+    <t>2022-11-20T10:08:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
